--- a/www/IndicatorsPerCountry/Cyprus_GoatsperCapita_TerritorialRef_1960_2012_CCode_196.xlsx
+++ b/www/IndicatorsPerCountry/Cyprus_GoatsperCapita_TerritorialRef_1960_2012_CCode_196.xlsx
@@ -114,13 +114,13 @@
     <t>Klein Goldewijk, Kees (2015). Goats per Capita. http://hdl.handle.net/10622/BSS0NQ, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_BSS0NQ.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_BSS0NQ.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_BSS0NQ.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_BSS0NQ.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_BSS0NQ.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_BSS0NQ.bib</t>
   </si>
 </sst>
 </file>
